--- a/config_12.29/prop_clear_server.xlsx
+++ b/config_12.29/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,7 +388,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -522,9 +528,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +617,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,15 +901,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="31" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="22" customWidth="1"/>
     <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -914,10 +920,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -931,13 +937,13 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>1591635600</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -954,10 +960,10 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>1588633200</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>1589216400</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -971,10 +977,10 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>1588028400</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1588611600</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -988,10 +994,10 @@
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>1589844600</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1590422400</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1005,10 +1011,10 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>1598310000</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>1598889599</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1022,10 +1028,10 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>1599523200</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1603123199</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1039,10 +1045,10 @@
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>1599523200</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>1600099199</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1053,13 +1059,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>1606147199</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1070,13 +1076,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>1606147199</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1087,13 +1093,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>1606147199</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1104,13 +1110,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>1606147199</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1121,13 +1127,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>1606147199</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1138,13 +1144,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>1606147199</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1155,13 +1161,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>1606147199</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1172,13 +1178,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>1606147199</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1189,13 +1195,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>1605571200</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>1606147199</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1206,13 +1212,13 @@
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>1603727999</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -1226,11 +1232,11 @@
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1604332799</v>
+      <c r="C19" s="42">
+        <v>1609200000</v>
+      </c>
+      <c r="D19" s="42">
+        <v>1609775999</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>49</v>
@@ -1243,11 +1249,11 @@
       <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1604332799</v>
+      <c r="C20" s="42">
+        <v>1609200000</v>
+      </c>
+      <c r="D20" s="42">
+        <v>1609775999</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>49</v>
@@ -1260,11 +1266,11 @@
       <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1604332799</v>
+      <c r="C21" s="42">
+        <v>1609200000</v>
+      </c>
+      <c r="D21" s="42">
+        <v>1609775999</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>49</v>
@@ -1277,11 +1283,11 @@
       <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1604332799</v>
+      <c r="C22" s="42">
+        <v>1609200000</v>
+      </c>
+      <c r="D22" s="42">
+        <v>1609775999</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>49</v>
@@ -1294,11 +1300,11 @@
       <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1604332799</v>
+      <c r="C23" s="42">
+        <v>1609200000</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1609775999</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>49</v>
@@ -1311,11 +1317,11 @@
       <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1604332799</v>
+      <c r="C24" s="42">
+        <v>1609200000</v>
+      </c>
+      <c r="D24" s="42">
+        <v>1609775999</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>49</v>
@@ -1331,129 +1337,129 @@
       <c r="C25" s="3">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+    <row r="26" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <v>1606176000</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>1606751999</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <v>1606176000</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>1606751999</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+    <row r="28" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <v>1606176000</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>1606751999</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+    <row r="29" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <v>1606176000</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>1606751999</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <v>1607385600</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="25">
         <v>1607961599</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+    <row r="31" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>1607385600</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>1607961599</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35">
+    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>1607990400</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>1608566399</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1461,23 +1467,23 @@
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="41">
         <v>1608595200</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="41">
         <v>1609171199</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="10"/>
     </row>
   </sheetData>

--- a/config_12.29/prop_clear_server.xlsx
+++ b/config_12.29/prop_clear_server.xlsx
@@ -15,12 +15,12 @@
     <sheet name="player_prop|道具表" sheetId="1" r:id="rId1"/>
     <sheet name="player_ext_status|状态扩展" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>id|行号</t>
   </si>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>圣诞节礼盒掉落物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_yd_jyb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦金元宝</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -543,9 +551,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -619,6 +624,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,15 +909,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="30" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26" style="29" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="21" customWidth="1"/>
     <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -920,10 +928,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -943,7 +951,7 @@
       <c r="C2" s="3">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>1591635600</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -954,16 +962,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>1588633200</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>1589216400</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -971,16 +979,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>1588028400</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>1588611600</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -988,16 +996,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>1589844600</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>1590422400</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1005,16 +1013,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>1598310000</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>1598889599</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1022,16 +1030,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>1599523200</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>1603123199</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1039,16 +1047,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>1599523200</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>1600099199</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1056,16 +1064,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>1606147199</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1073,16 +1081,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>1606147199</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1090,16 +1098,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>1606147199</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1107,16 +1115,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>1606147199</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1124,16 +1132,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>1606147199</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1141,16 +1149,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>1606147199</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1158,16 +1166,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>1606147199</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1175,16 +1183,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>1606147199</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1192,16 +1200,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>1605571200</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>1606147199</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1218,7 +1226,7 @@
       <c r="C18" s="3">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>1603727999</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -1232,10 +1240,10 @@
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <v>1609200000</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>1609775999</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1249,10 +1257,10 @@
       <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>1609200000</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>1609775999</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -1266,10 +1274,10 @@
       <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <v>1609200000</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>1609775999</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -1283,10 +1291,10 @@
       <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>1609200000</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>1609775999</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -1300,10 +1308,10 @@
       <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>1609200000</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>1609775999</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -1317,10 +1325,10 @@
       <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>1609200000</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>1609775999</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -1337,7 +1345,7 @@
       <c r="C25" s="3">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>1605542399</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -1345,16 +1353,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="31">
         <v>1606176000</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>1606751999</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -1362,16 +1370,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>1606176000</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>1606751999</v>
       </c>
       <c r="E27" s="14" t="s">
@@ -1379,16 +1387,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="31">
         <v>1606176000</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>1606751999</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -1396,70 +1404,70 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <v>1606176000</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>1606751999</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="18">
+    <row r="30" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <v>1607385600</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>1607961599</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18">
+    <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <v>1607385600</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>1607961599</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34">
+    <row r="32" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>1607990400</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>1608566399</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1467,24 +1475,35 @@
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="40">
         <v>1608595200</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="40">
         <v>1609171199</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="10"/>
+    <row r="34" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D34" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_12.29/prop_clear_server.xlsx
+++ b/config_12.29/prop_clear_server.xlsx
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,10 +1071,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D9" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>30</v>
@@ -1088,10 +1088,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D10" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
@@ -1105,10 +1105,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D11" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>32</v>
@@ -1122,10 +1122,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D12" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
@@ -1139,10 +1139,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D13" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>34</v>
@@ -1156,10 +1156,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D14" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>35</v>
@@ -1173,10 +1173,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D15" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -1190,10 +1190,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D16" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>37</v>
@@ -1207,10 +1207,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="30">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="D17" s="22">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>38</v>
